--- a/biology/Botanique/Milium_effusum/Milium_effusum.xlsx
+++ b/biology/Botanique/Milium_effusum/Milium_effusum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Milium effusum, le Millet des bois, Millet diffus, Mil, Millet sauvage, Millet étalé ou Petit Millet, est une espèce de plante herbacée commune de la famille des Poaceae.
 Cette plante est native des forêts humides à fraiches de la zone holarctique.
@@ -513,7 +525,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les zones tempérées de l'hémisphère nord (absente autour de la Méditerranée et de l'ouest et du sud-ouest des États-Unis).
 Cette plante est présente en touffes ou tapis dans les prés et prairies, dans les sous-bois éclairés de bois et forêts, sur les ourlets forestiers ou bocagers, sur les talus, bords de chemins, berges et fossés.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Herbacée vivace et glabre, à souche émettant de courts stolons ;
 Hauteur : 50 cm à 1 mètre et plus ;
@@ -556,9 +572,7 @@
 Panicule : pyramidale, longue de 15 à 25 cm, lâche, verte à violacée, à rameaux étalés, à la fin réfléchis, peu rudes ;
 Fleur : floraison de mai à août ; en épillets écartés, ovoïdes, longs de 3-4 mm ;
 glumes ovales-aiguës, trinervées, presque lisses ; glumelle inférieure subaiguë ;
-caryopse convexe sur les deux faces, et de couleur noirâtre.
-Variétés
-Un cultivar aureum, jaune est commercialisé pour des effets décoratifs dans les massifs ou pots.</t>
+caryopse convexe sur les deux faces, et de couleur noirâtre.</t>
         </is>
       </c>
     </row>
@@ -583,14 +597,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un cultivar aureum, jaune est commercialisé pour des effets décoratifs dans les massifs ou pots.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Milium_effusum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milium_effusum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Milium effusum L.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Millet des bois[1], Millet diffus[1],[2],[3], Mil[1], Millet sauvage[1],[2],[3], Millet étalé[1],[2],[3], petit Millet[2].
-Milium effusum a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Milium effusum L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Millet des bois, Millet diffus Mil, Millet sauvage Millet étalé petit Millet.
+Milium effusum a pour synonymes :
 Agrostis effusa (L.) Lam.
 Alopecurus effusus Link ex Kunth
 Decandolia effusa (L.) T.Bastard
